--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/CanBoHoiNongDanThanhPho.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/CanBoHoiNongDanThanhPho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F8044C-D66A-4593-83F6-AA14295E57D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBB5F7A-AA75-49C5-8956-E556782091B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CBAE476-A734-4598-80ED-DC116C771E34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Quê quán</t>
   </si>
   <si>
-    <t>Nơi ở hiện nay</t>
-  </si>
-  <si>
     <t>Ngày vào Đảng</t>
   </si>
   <si>
@@ -81,21 +78,12 @@
     <t>Kết quả đánh giá</t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>Dự bị</t>
   </si>
   <si>
     <t>Chính thức</t>
   </si>
   <si>
-    <t>Chuyên môn</t>
-  </si>
-  <si>
     <t>LLCT</t>
   </si>
   <si>
@@ -138,26 +126,194 @@
     <t>Đảng viên</t>
   </si>
   <si>
-    <t>Tên</t>
-  </si>
-  <si>
     <t>Đơn vi</t>
   </si>
   <si>
-    <t>ID  (không được sửa)</t>
-  </si>
-  <si>
-    <t>Họ và tên  (phải nhập)</t>
-  </si>
-  <si>
-    <t>Ngày, tháng, năm sinh  (phải nhập)</t>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Nơi cư trú</t>
+  </si>
+  <si>
+    <t>Xã/Phường</t>
+  </si>
+  <si>
+    <t>Quận/Huyện</t>
+  </si>
+  <si>
+    <t>Số nhà</t>
+  </si>
+  <si>
+    <t>Trình Độ Chuyên Môn</t>
+  </si>
+  <si>
+    <r>
+      <t>ID  (không được sửa)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Họ và tên</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tên </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Trình Độ Học Vấn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày tháng
+ năm sinh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(nhập dạng 'dd/MM/yyyy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Giới tính
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Nam Để X, Nữ  không để gì)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chuyên Ngành</t>
+  </si>
+  <si>
+    <t>Ban Chấp Hành</t>
+  </si>
+  <si>
+    <t>CMND 
+ (Số, ngày cấp)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Số CCCD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ngày tháng năm cấp số CCCD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)
+(nhập dạng 'dd/MM/yyyy)</t>
+    </r>
+  </si>
+  <si>
+    <t>(*) Phải nhập</t>
+  </si>
+  <si>
+    <t>CÁN BỘ HỘI NÔNG DÂN THÀNH PHỐ HỒ CHÍ MINH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,22 +322,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -193,12 +404,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -221,48 +432,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -579,216 +949,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03B7EC8-9EDE-4A68-9530-DF5323F72F40}">
-  <dimension ref="A2:AI3"/>
+  <dimension ref="A3:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="15" width="28.140625" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" customWidth="1"/>
+    <col min="20" max="20" width="27" customWidth="1"/>
+    <col min="21" max="21" width="54" customWidth="1"/>
+    <col min="22" max="22" width="28.7109375" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" customWidth="1"/>
+    <col min="34" max="34" width="15" customWidth="1"/>
+    <col min="35" max="35" width="13.5703125" customWidth="1"/>
+    <col min="36" max="36" width="13.140625" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" customWidth="1"/>
+    <col min="40" max="40" width="18.7109375" customWidth="1"/>
+    <col min="41" max="42" width="13.28515625" customWidth="1"/>
+    <col min="43" max="43" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="6" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="14"/>
+      <c r="S6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI2" s="6"/>
-    </row>
-    <row r="3" spans="1:35" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="U7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="1" t="s">
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="AD7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="AE7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="4" t="s">
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="AH7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AI7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AM7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AN7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AO7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="26">
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="AG6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AP6:AP7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>